--- a/templates/RSTK-8109-Inventory Unit Cost Adjust.xlsx
+++ b/templates/RSTK-8109-Inventory Unit Cost Adjust.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F87FDF5-0EEE-4B20-B299-DCD07ABF3500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7848C518-51F1-4C05-B366-AF27B056CF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Adjust" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>multidiv LOT (Lot track)</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED1BA4C-8A3F-4959-95F4-114CD1E971EA}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:XFD10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,10 +469,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -491,144 +491,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -643,7 +511,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
